--- a/VioletVreath/tool/三直角三角錐判定空間分割2.xlsx
+++ b/VioletVreath/tool/三直角三角錐判定空間分割2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="120" windowWidth="17256" windowHeight="4056" activeTab="2"/>
+    <workbookView xWindow="288" yWindow="120" windowWidth="17256" windowHeight="4056"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
@@ -16,79 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
-  <si>
-    <t>xy
-1：ｚ&gt;0</t>
-  </si>
-  <si>
-    <t>yz
-1：x&gt;0</t>
-  </si>
-  <si>
-    <t>zx
-1:y&gt;0</t>
-  </si>
-  <si>
-    <t>bo_A_AB
-0:原点側</t>
-  </si>
-  <si>
-    <t>bo_A_AC
-0:原点側</t>
-  </si>
-  <si>
-    <t>bo_B_BA
-0:原点側</t>
-  </si>
-  <si>
-    <t>bo_B_BC
-0:原点側</t>
-  </si>
-  <si>
-    <t>bo_C_CA
-0:原点側</t>
-  </si>
-  <si>
-    <t>bo_C_CB
-0:原点側</t>
-  </si>
-  <si>
-    <t>xy_C
-1:原点側</t>
-  </si>
-  <si>
-    <t>yz_B
-1:原点側</t>
-  </si>
-  <si>
-    <t>zx_A
-1:原点側</t>
-  </si>
-  <si>
-    <t>vxy_AB
-1:原点側</t>
-  </si>
-  <si>
-    <t>vyz_BC
-1:原点側</t>
-  </si>
-  <si>
-    <t>vzx_CA
-1:原点側</t>
-  </si>
-  <si>
-    <t>vramp_AB
-1:原点側</t>
-  </si>
-  <si>
-    <t>vramp_BC
-1:原点側</t>
-  </si>
-  <si>
-    <t>vramp_CA
-1:原点側</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>ramp
 0:原点側</t>
@@ -190,13 +118,243 @@
   </si>
   <si>
     <t>#include &lt;sstream&gt;</t>
+  </si>
+  <si>
+    <t>頂点Oとの距離</t>
+    <rPh sb="0" eb="2">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂点Aとの距離</t>
+    <rPh sb="0" eb="2">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zx_B
+1:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yz_A
+1:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂点Bとの距離</t>
+    <rPh sb="0" eb="2">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頂点Cとの距離</t>
+    <rPh sb="0" eb="2">
+      <t>チョウテン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辺OAとの距離</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辺OBとの距離</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辺OCとの距離</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辺ABとの距離</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辺BCとの距離</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>辺CAとの距離</t>
+    <rPh sb="0" eb="1">
+      <t>ヘン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面OABとの距離</t>
+    <rPh sb="0" eb="1">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面OBCとの距離</t>
+    <rPh sb="0" eb="1">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面OCAとの距離</t>
+    <rPh sb="0" eb="1">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>面ABCとの距離</t>
+    <rPh sb="0" eb="1">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bo_A_AB
+0:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bo_A_AC
+0:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bo_B_BA
+0:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bo_B_BC
+0:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bo_C_CA
+0:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bo_C_CB
+0:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xy_C
+1:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yz
+1：x&gt;0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>zx
+1:y&gt;0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>xy
+1：ｚ&gt;0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vxy_AB
+1:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vramp_AB
+1:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vyz_BC
+1:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vramp_BC
+1:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vzx_CA
+1:原点側</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vramp_CA
+1:原点側</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +386,20 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
@@ -281,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -293,6 +465,30 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -671,85 +867,599 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V1"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="16" max="16" width="11.21875" customWidth="1"/>
+    <col min="17" max="18" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="6" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="39.6">
+    <row r="1" spans="1:22" ht="26.4">
       <c r="A1" s="3" t="s">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>21</v>
-      </c>
+    </row>
+    <row r="2" spans="1:22" s="4" customFormat="1">
+      <c r="A2" s="7">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" s="4" customFormat="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" s="4" customFormat="1">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" s="4" customFormat="1">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" s="11" customFormat="1">
+      <c r="A6" s="9">
+        <v>0</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <v>0</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9">
+        <v>1</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" s="11" customFormat="1">
+      <c r="A7" s="9">
+        <v>0</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" s="11" customFormat="1">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" s="11" customFormat="1">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" s="11" customFormat="1">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9">
+        <v>0</v>
+      </c>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9">
+        <v>0</v>
+      </c>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9">
+        <v>0</v>
+      </c>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9">
+        <v>0</v>
+      </c>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" s="11" customFormat="1">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9">
+        <v>0</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9">
+        <v>0</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9">
+        <v>0</v>
+      </c>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9">
+        <v>0</v>
+      </c>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" s="11" customFormat="1">
+      <c r="A12" s="9">
+        <v>0</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9">
+        <v>1</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" s="11" customFormat="1">
+      <c r="A13" s="9">
+        <v>1</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9">
+        <v>1</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" s="11" customFormat="1">
+      <c r="A14" s="9">
+        <v>1</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9">
+        <v>1</v>
+      </c>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" s="4" customFormat="1">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>1</v>
+      </c>
+      <c r="R15" s="7">
+        <v>1</v>
+      </c>
+      <c r="S15" s="7">
+        <v>1</v>
+      </c>
+      <c r="T15" s="7"/>
+      <c r="U15" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" s="4" customFormat="1">
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="21:21" s="4" customFormat="1">
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="21:21" s="4" customFormat="1">
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="21:21" s="4" customFormat="1">
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="21:21" s="4" customFormat="1">
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="21:21" s="4" customFormat="1">
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="21:21" s="4" customFormat="1">
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="21:21" s="4" customFormat="1">
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="21:21" s="4" customFormat="1">
+      <c r="U24" s="6"/>
+    </row>
+    <row r="25" spans="21:21" s="4" customFormat="1">
+      <c r="U25" s="6"/>
+    </row>
+    <row r="26" spans="21:21" s="4" customFormat="1">
+      <c r="U26" s="6"/>
+    </row>
+    <row r="27" spans="21:21" s="4" customFormat="1">
+      <c r="U27" s="6"/>
+    </row>
+    <row r="28" spans="21:21" s="4" customFormat="1">
+      <c r="U28" s="6"/>
+    </row>
+    <row r="29" spans="21:21" s="4" customFormat="1">
+      <c r="U29" s="6"/>
+    </row>
+    <row r="30" spans="21:21" s="4" customFormat="1">
+      <c r="U30" s="6"/>
+    </row>
+    <row r="31" spans="21:21" s="4" customFormat="1">
+      <c r="U31" s="6"/>
+    </row>
+    <row r="32" spans="21:21" s="4" customFormat="1">
+      <c r="U32" s="6"/>
+    </row>
+    <row r="33" spans="21:21" s="4" customFormat="1">
+      <c r="U33" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -765,7 +1475,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1">
         <v>4</v>
@@ -773,7 +1483,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -781,7 +1491,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B3" s="1">
         <v>6</v>
@@ -790,7 +1500,7 @@
     <row r="4" spans="1:2">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -803,80 +1513,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
